--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2969874.300266576</v>
+        <v>2967986.718750176</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556480.1491275465</v>
+        <v>292567.3064000454</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>88.42622435099887</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>201.1407479991918</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>277.0137813233753</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>162.7861605590466</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>80.97347500494054</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>281.6126679114866</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.76935934992309</v>
+        <v>139.1329950741225</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>161.148643625383</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.35153719005456</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.8066325228119</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>131.4948651179006</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>34.55149341717801</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>80.34942141356831</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>210.9685212521343</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>218.5843930538366</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>260.5595041555385</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.2985572568734</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>73.50096938092086</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>43.21861285489177</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.450647262789431</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789596</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4325,13 +4325,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4416,7 +4416,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2532.718625807064</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2278.956840445156</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1947.893953101585</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>646.3375953125549</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W7" t="n">
-        <v>443.6717438918015</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X7" t="n">
-        <v>443.6717438918015</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>601.1385180919713</v>
       </c>
       <c r="C8" t="n">
-        <v>884.2894331389243</v>
+        <v>601.1385180919713</v>
       </c>
       <c r="D8" t="n">
-        <v>526.0237345321739</v>
+        <v>601.1385180919713</v>
       </c>
       <c r="E8" t="n">
-        <v>140.2354819339296</v>
+        <v>215.350265493727</v>
       </c>
       <c r="F8" t="n">
-        <v>133.2899811847262</v>
+        <v>208.4047647445236</v>
       </c>
       <c r="G8" t="n">
-        <v>119.3665771233171</v>
+        <v>194.4813606831145</v>
       </c>
       <c r="H8" t="n">
-        <v>119.3665771233171</v>
+        <v>194.4813606831145</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598977</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1364.743608328863</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>991.277850067783</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>601.1385180919713</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>705.5516739134498</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>557.4050153476338</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>471.4038777286584</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286584</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>216.7193895227715</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>216.7193895227715</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>216.7193895227715</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>216.7193895227715</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M12" t="n">
-        <v>1609.589088435861</v>
+        <v>1157.264000062947</v>
       </c>
       <c r="N12" t="n">
-        <v>1954.109744073479</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.4965182510046</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.4965182510047</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1366.093174479215</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V13" t="n">
-        <v>1366.093174479215</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="W13" t="n">
-        <v>1076.676004442255</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.676004442255</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.8834252987245</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,22 +5261,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1118.069037873349</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1464.015772156713</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1464.015772156713</v>
       </c>
       <c r="T16" t="n">
-        <v>1306.680135388851</v>
+        <v>1240.230356946219</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.551496602409</v>
+        <v>951.1017181597769</v>
       </c>
       <c r="V16" t="n">
-        <v>762.8670083965222</v>
+        <v>696.41722995389</v>
       </c>
       <c r="W16" t="n">
-        <v>762.8670083965222</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X16" t="n">
-        <v>762.8670083965222</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340556</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527475</v>
+        <v>1039.477879194978</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337731</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6072,22 +6072,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>313.6574596091984</v>
       </c>
       <c r="M24" t="n">
-        <v>629.3975440735805</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337731</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.0175521403265</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>226.2249729967964</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>629.3975440735812</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188876</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>171.4604948753575</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.3308627950705</v>
+        <v>439.5324299542174</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1555451485342</v>
+        <v>326.3571123076812</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485342</v>
+        <v>232.0013381767162</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475117</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>191.874234630972</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>191.874234630972</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1929.610257740124</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.451112937047</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1617.426563007923</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1384.058789502852</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1185.135166578336</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>951.478861822746</v>
+        <v>902.6804289818922</v>
       </c>
       <c r="X31" t="n">
-        <v>779.2501762060992</v>
+        <v>730.4517433652456</v>
       </c>
       <c r="Y31" t="n">
-        <v>614.2184623439396</v>
+        <v>565.4200295030863</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>562.410873693161</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649692</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>435.8912381133352</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7108,22 +7108,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2593.056999066963</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2287.712058577509</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9720,7 +9720,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>357.1810142737253</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>148.6703699443517</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,16 +10431,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>186.0244650756819</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>265.562568596635</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>160.0691419768046</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>2.808840495400489</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>154.7424872806767</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.41285898661478</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>141.1981396448209</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>75.26883114644303</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>33.55325026999137</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>25.96349418105245</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>131.6152711106627</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>106.3310108010164</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338575</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>48.01209316312037</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>48.31044851244647</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-4.973799150320701e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793303.1678232768</v>
+        <v>793303.1678232769</v>
       </c>
     </row>
     <row r="12">
@@ -26314,28 +26314,28 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.042593449</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
         <v>630574.3128851689</v>
@@ -26347,10 +26347,10 @@
         <v>636307.3716448203</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448204</v>
       </c>
       <c r="P2" t="n">
         <v>636307.3716448202</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.906800867</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
@@ -26427,34 +26427,34 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758373</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758438</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758218</v>
+        <v>787.7936905758412</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477236</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137534</v>
+        <v>-175578.7248137533</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007914</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007912</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352274024</v>
+        <v>-11937.57264871156</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541562</v>
+        <v>513222.4638281842</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541561</v>
+        <v>513222.463828184</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541557</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541562</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615633</v>
+        <v>336799.2446355909</v>
       </c>
       <c r="K6" t="n">
-        <v>470831.0828473284</v>
+        <v>470812.5891093939</v>
       </c>
       <c r="L6" t="n">
-        <v>505042.7780920315</v>
+        <v>505042.7780920317</v>
       </c>
       <c r="M6" t="n">
-        <v>380584.6696590614</v>
+        <v>380584.6696590615</v>
       </c>
       <c r="N6" t="n">
-        <v>515385.6848928985</v>
+        <v>515385.6848928987</v>
       </c>
       <c r="O6" t="n">
-        <v>515385.6848928983</v>
+        <v>515385.6848928987</v>
       </c>
       <c r="P6" t="n">
-        <v>471223.079590053</v>
+        <v>471223.0795900528</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108375</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>266.2568172696841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>85.14112624278593</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>175.6530016829087</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>105.7200603401052</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>53.66215979861119</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>65.69171697521732</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>4.910330425104405</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>87.16195689493816</v>
+        <v>12.79832117073872</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>18.68333655655434</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.771212764859751</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-2.509108021242779e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,31 +31136,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31373,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>168.9387261055271</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>298.7361601280927</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32072,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>383.8369411113149</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776663</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,34 +32309,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776663</v>
+        <v>178.0207665297323</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,7 +32546,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32558,22 +32558,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>269.2977800795997</v>
       </c>
       <c r="N21" t="n">
-        <v>225.9628574215817</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32795,22 +32795,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>213.98498291272</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33023,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>213.9849829127209</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33047,13 +33047,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33263,34 +33263,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>162.0514636997589</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33503,25 +33503,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>237.6067438025515</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33655,13 +33655,13 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565519</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33974,34 +33974,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34135,7 +34135,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
@@ -34214,19 +34214,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860912</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
@@ -34448,22 +34448,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>73.93272583297863</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>492.5097559335087</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>646.7368223883129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>616.1229066348999</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700517</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700517</v>
+        <v>429.2868413620174</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>592.8688099075813</v>
       </c>
       <c r="N21" t="n">
-        <v>573.9635196818019</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>218.6266344938511</v>
       </c>
       <c r="M24" t="n">
-        <v>537.5560127407016</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>537.5560127407025</v>
+        <v>6.536336022333392</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>485.6224935277405</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>469.8927093261365</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>47.47008529580771</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>134.2208565133017</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116981</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>20.08736789078312</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>258.4210870585856</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
